--- a/biology/Botanique/Nicandra_physalodes/Nicandra_physalodes.xlsx
+++ b/biology/Botanique/Nicandra_physalodes/Nicandra_physalodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicandra physalodes (L.) Gaertn. (synonyme : Nicandra physaloides), aussi appelé pomme du Pérou, est une plante annuelle de la famille des Solanaceae originaire de la cordillère des Andes.
 Elle ressemble au Coqueret du Pérou, d'où le nom de Nicandre faux-coqueret qui lui est parfois donné mais contrairement à ce dernier, toutes les parties du faux-coqueret sont toxiques en raison de la solanine qu'il contient. La plante est traditionnellement utilisée en culture biologique au potager pour repousser ou empoisonner les insectes, notamment les aleurodes.
-Le nom du genre est un hommage au grammairien grec Nicandre de Colophon, dont un ouvrage (Alexipharma) est consacré aux toxines et poisons d'origine animale ou végétale[1].
+Le nom du genre est un hommage au grammairien grec Nicandre de Colophon, dont un ouvrage (Alexipharma) est consacré aux toxines et poisons d'origine animale ou végétale.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le faux-coqueret est une plante buissonnante aux fleurs en forme de cloche. La plante se développe en hauteur et en largeur sur parfois 1 m en tous sens, et la variété ‘Violacea’ encore plus grande, atteint facilement 1,3 m.
 Les feuilles sont alternes, lobées ou profondément dentées. Elles ont un aspect gaufré. Elles dégagent une odeur peu agréable d’autant plus forte si elles sont froissées.
@@ -548,9 +562,11 @@
           <t>Plante invasive</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le faux-coqueret est une plante invasive, aujourd'hui présente dans une grande partie de l'Amérique du Nord[2] et de la France[3]. Elle est subspontanée en Suisse[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faux-coqueret est une plante invasive, aujourd'hui présente dans une grande partie de l'Amérique du Nord et de la France. Elle est subspontanée en Suisse.
 D'abord introduit en Europe comme plante de jardin souvent sous la forme ‘Violacea’ plus décorative, il s'est naturalisé et se développe principalement dans les friches, les champs de maïs et les bords de chemin. 
 </t>
         </is>
@@ -580,7 +596,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicandra physalodes apprécie les sols riches et frais mais ne se plait pas en terrain trop humide. Il aime le plein soleil. 
 Il se sème de mars à mai. Les graines germent facilement en 1 à 2 semaines à 20 °C. Nicandra physalodes se ressème parfois spontanément, c’est pourquoi il est devenu invasif dans de nombreuses régions.
